--- a/docs/MCQBert - full results.xlsx
+++ b/docs/MCQBert - full results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27411"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{637FC948-55E4-4122-8A34-497F634B27F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4AC7D8-6A45-4A3B-90C4-1F9BE24E6746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,10 +220,18 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,17 +240,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,344 +585,360 @@
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>0.79</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="8">
         <v>0.56299999999999994</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8">
         <v>0.78200000000000003</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>0.81499999999999995</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>0.74199999999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8">
         <v>0.77700000000000002</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="8">
         <v>0.81200000000000006</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="8">
         <v>0.72699999999999998</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>0.73</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
         <v>0.55900000000000005</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <v>0.72599999999999998</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
         <v>0.79</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>0.72899999999999998</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.54600000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="8">
         <v>0.55100000000000005</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13">
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>0.72099999999999997</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>0.55400000000000005</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13">
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="8">
         <v>0.71699999999999997</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="8">
         <v>0.55600000000000005</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
         <v>0.64500000000000002</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>0.74099999999999999</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="8">
         <v>0.436</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
         <v>0.78</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>0.53900000000000003</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.53400000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8">
         <v>0.78400000000000003</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="8">
         <v>0.82399999999999995</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="8">
         <v>0.71899999999999997</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
         <v>0.78</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>0.53900000000000003</v>
       </c>
     </row>
@@ -933,36 +949,36 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18.75">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="18.75">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
@@ -997,28 +1013,28 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>0.79300000000000004</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>0.83</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>0.56699999999999995</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="8">
         <v>0.82599999999999996</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="8">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1026,28 +1042,28 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="8">
         <v>0.79500000000000004</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <v>0.57299999999999995</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="8">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="8">
         <v>0.80900000000000005</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="8">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="8">
         <v>0.55500000000000005</v>
       </c>
     </row>
@@ -1055,28 +1071,28 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <v>0.79400000000000004</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="8">
         <v>0.83</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="8">
         <v>0.73799999999999999</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="8">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1084,49 +1100,57 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="8">
         <v>0.78300000000000003</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <v>0.745</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="H21" s="8">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.56599999999999995</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>0.74399999999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="8">
         <v>0.56899999999999995</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="8">
         <v>0.746</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>0.56399999999999995</v>
       </c>
     </row>
@@ -1134,28 +1158,28 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <v>0.79100000000000004</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="8">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
         <v>0.75</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="8">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="8">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="8">
         <v>0.55800000000000005</v>
       </c>
     </row>
@@ -1163,28 +1187,28 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="8">
         <v>0.748</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="8">
         <v>0.57099999999999995</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="8">
         <v>0.77300000000000002</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="8">
         <v>0.69899999999999995</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="8">
         <v>0.52300000000000002</v>
       </c>
     </row>
@@ -1192,49 +1216,57 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>0.79400000000000004</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>0.82599999999999996</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="8">
         <v>0.746</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="8">
         <v>0.57299999999999995</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="H25" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.56100000000000005</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <v>0.83</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="8">
         <v>0.56599999999999995</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="8">
         <v>0.83</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="8">
         <v>0.73299999999999998</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="8">
         <v>0.56599999999999995</v>
       </c>
     </row>
@@ -1242,62 +1274,62 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="8">
         <v>0.77100000000000002</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="8">
         <v>0.71599999999999997</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="8">
         <v>0.52500000000000002</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="8">
         <v>0.78300000000000003</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="8">
         <v>0.81200000000000006</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="8">
         <v>0.74399999999999999</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="8">
         <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18.75">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" ht="18.75">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -1332,28 +1364,28 @@
       <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="8">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="8">
         <v>0.72499999999999998</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="8">
         <v>0.54900000000000004</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="8">
         <v>0.753</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="8">
         <v>0.77900000000000003</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="8">
         <v>0.72099999999999997</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="8">
         <v>0.50700000000000001</v>
       </c>
     </row>
@@ -1361,28 +1393,28 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="8">
         <v>0.78700000000000003</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="8">
         <v>0.72199999999999998</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="8">
         <v>0.55400000000000005</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="8">
         <v>0.77</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="8">
         <v>0.79400000000000004</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="8">
         <v>0.74</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="8">
         <v>0.54100000000000004</v>
       </c>
     </row>
@@ -1390,28 +1422,28 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="8">
         <v>0.79</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="8">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <v>0.746</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="8">
         <v>0.56699999999999995</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="8">
         <v>0.79</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="8">
         <v>0.82599999999999996</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="8">
         <v>0.56399999999999995</v>
       </c>
     </row>
@@ -1419,41 +1451,57 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="C35" s="8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0.52800000000000002</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="8">
         <v>0.77300000000000002</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="8">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="8">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="8">
         <v>0.53800000000000003</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="8">
         <v>0.79</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="8">
         <v>0.81899999999999995</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="8">
         <v>0.752</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="8">
         <v>0.57099999999999995</v>
       </c>
     </row>
@@ -1461,28 +1509,28 @@
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="8">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="8">
         <v>0.83</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="8">
         <v>0.749</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <v>0.57899999999999996</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="8">
         <v>0.81799999999999995</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="8">
         <v>0.75</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="8">
         <v>0.56899999999999995</v>
       </c>
     </row>
@@ -1490,28 +1538,28 @@
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="8">
         <v>0.77900000000000003</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="8">
         <v>0.74</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="8">
         <v>0.82799999999999996</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="8">
         <v>0.73599999999999999</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="8">
         <v>0.56499999999999995</v>
       </c>
     </row>
@@ -1519,41 +1567,57 @@
       <c r="A39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="C39" s="8">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.753</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0.54900000000000004</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="8">
         <v>0.79500000000000004</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="8">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="8">
         <v>0.748</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="8">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="8">
         <v>0.78900000000000003</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="8">
         <v>0.81799999999999995</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="8">
         <v>0.749</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="8">
         <v>0.56799999999999995</v>
       </c>
     </row>
@@ -1561,42 +1625,42 @@
       <c r="A41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="8">
         <v>0.74</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="8">
         <v>0.55700000000000005</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="8">
         <v>0.82199999999999995</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="8">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="8">
         <v>0.55200000000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:K16"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1613,20 +1677,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" t="s">
